--- a/wapp-core/src/main/resources/excel/api/v1/纸票批量导入模板.xlsx
+++ b/wapp-core/src/main/resources/excel/api/v1/纸票批量导入模板.xlsx
@@ -29,14 +29,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校验码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发票号码</t>
   </si>
   <si>
     <t>开票日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验码（后6位）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +54,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -80,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -362,34 +371,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3100212130</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>20210903</v>
+      </c>
+      <c r="E2">
+        <v>322312</v>
       </c>
     </row>
   </sheetData>
